--- a/bin/role.xlsx
+++ b/bin/role.xlsx
@@ -607,11 +607,17 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
     <col min="8" max="8" width="83.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1155,5 +1161,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>